--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="round2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="round3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="round4" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t xml:space="preserve">sequential output</t>
   </si>
@@ -117,6 +118,33 @@
   </si>
   <si>
     <t xml:space="preserve">SSD-var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hdd03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd01-20G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd11-20G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd02-40G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd12-40G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd03-75G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd13-145G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ssd-var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel-ssd</t>
   </si>
 </sst>
 </file>
@@ -238,7 +266,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,7 +342,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -364,10 +392,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0685358810737585"/>
-          <c:y val="0.111233008669592"/>
-          <c:w val="0.911447007236819"/>
-          <c:h val="0.803970887295301"/>
+          <c:x val="0.0685408997621917"/>
+          <c:y val="0.11120625066895"/>
+          <c:w val="0.911424569176141"/>
+          <c:h val="0.803917371294017"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -407,6 +435,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -678,6 +707,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -949,6 +979,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1193,11 +1224,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="95016399"/>
-        <c:axId val="82095640"/>
+        <c:axId val="78922799"/>
+        <c:axId val="47887477"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95016399"/>
+        <c:axId val="78922799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1232,14 +1263,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82095640"/>
+        <c:crossAx val="47887477"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82095640"/>
+        <c:axId val="47887477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,7 +1314,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95016399"/>
+        <c:crossAx val="78922799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1320,7 +1351,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1402,6 +1433,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1673,6 +1705,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1944,6 +1977,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2188,11 +2222,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="159695"/>
-        <c:axId val="56736601"/>
+        <c:axId val="16183980"/>
+        <c:axId val="58895472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159695"/>
+        <c:axId val="16183980"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,14 +2261,433 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56736601"/>
+        <c:crossAx val="58895472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56736601"/>
+        <c:axId val="58895472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16183980"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>zfs on hdd with different raid setting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>112110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>108787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="86523242"/>
+        <c:axId val="66976347"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="86523242"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="66976347"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66976347"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2731,1025 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159695"/>
+        <c:crossAx val="86523242"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>samsung vs intel ssd with different zpool size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>201127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$D$11:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>215152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>92135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="3073230"/>
+        <c:axId val="81193901"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="3073230"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81193901"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81193901"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3073230"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>samsung vs intel ssd with different zpool setting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$22:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$B$22:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>201127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>227512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$22:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$D$22:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>215152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>215396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$22:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$C$22:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>92135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89623</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="73478506"/>
+        <c:axId val="67080554"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="73478506"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67080554"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67080554"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="73478506"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2326,9 +3797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>876240</xdr:colOff>
+      <xdr:colOff>875880</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2336,8 +3807,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5493960" y="13440960"/>
-        <a:ext cx="10098360" cy="6726960"/>
+        <a:off x="5969880" y="13440960"/>
+        <a:ext cx="11050560" cy="6726600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2361,9 +3832,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>574920</xdr:colOff>
+      <xdr:colOff>574560</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2371,12 +3842,107 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4173120" y="1053000"/>
-        <a:ext cx="6968160" cy="5102640"/>
+        <a:off x="4586040" y="1053000"/>
+        <a:ext cx="7628040" cy="5102280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>146160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4140000" y="0"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>79200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>148320</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4142880" y="3509640"/>
+        <a:ext cx="5758920" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204840</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>275040</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9958320" y="3533040"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2398,7 +3964,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="15.4829545454545"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="16.9886363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -60005,14 +61571,11 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -60586,4 +62149,397 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>112110</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>47558</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>108787</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>41736</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>24752</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>61634</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>24275</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>15872</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>44064</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>201127</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>92135</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>215152</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>209508</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>70343</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>189223</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>210489</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>89623</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>215396</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>235659</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>82598</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>140759</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>227512</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>85955</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>208065</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>228948</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>71203</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>182680</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>236056</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>113036</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>273276</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>239641</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>110966</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>262493</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>201127</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>92135</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>215152</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>210489</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>89623</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>215396</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>227512</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>85955</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>208065</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>209508</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>70343</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>189223</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>235659</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>82598</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>140759</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>228948</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>71203</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>182680</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>236056</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>113036</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>273276</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>239641</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>110966</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>262493</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>5363</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -11,6 +11,7 @@
     <sheet name="round2" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="round3" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="round4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="round5" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t xml:space="preserve">sequential output</t>
   </si>
@@ -145,6 +146,24 @@
   </si>
   <si>
     <t xml:space="preserve">Intel-ssd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD20G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD40G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSD80G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raid1-2vdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raid1-3vdev</t>
   </si>
 </sst>
 </file>
@@ -342,7 +361,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -392,10 +411,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0685408997621917"/>
-          <c:y val="0.11120625066895"/>
-          <c:w val="0.911424569176141"/>
-          <c:h val="0.803917371294017"/>
+          <c:x val="0.0685408227073761"/>
+          <c:y val="0.111218154570756"/>
+          <c:w val="0.911367282020608"/>
+          <c:h val="0.803789338471419"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1224,11 +1243,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="78922799"/>
-        <c:axId val="47887477"/>
+        <c:axId val="181738"/>
+        <c:axId val="96453762"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78922799"/>
+        <c:axId val="181738"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1263,14 +1282,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47887477"/>
+        <c:crossAx val="96453762"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47887477"/>
+        <c:axId val="96453762"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1333,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78922799"/>
+        <c:crossAx val="181738"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1338,6 +1357,1423 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>zfs with different pool size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round3!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>SSD01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HDD01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HDD02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SSD03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HDD03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>SSD-var</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round3!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>201576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>229683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>218141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>205730</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>226916</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>224801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226628</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>224703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78157</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80342</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82530</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>238988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>238262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>235169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>235538</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>236397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round3!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>SSD01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HDD01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HDD02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SSD03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HDD03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>SSD-var</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round3!$D$2:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>214816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>214921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>215138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208449</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>207603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>208524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209053</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106226</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107396</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112834</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>273486</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>274677</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>275706</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>276649</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>276550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round3!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>SSD01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HDD01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HDD02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SSD03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HDD03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>SSD-var</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round3!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>89960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90057</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88458</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87862</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40757</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>113270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>112999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>113726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="13398529"/>
+        <c:axId val="34953295"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="13398529"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="34953295"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="34953295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="13398529"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>zfs on hdd with different raid setting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>112110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$D$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>108787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="79022498"/>
+        <c:axId val="44921508"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="79022498"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="44921508"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44921508"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79022498"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
@@ -1387,7 +2823,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>ZFS with Different Pool Size </a:t>
+              <a:t>samsung vs intel ssd with different zpool size</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1403,7 +2839,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>round3!$B$1</c:f>
+              <c:f>round4!$B$10:$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1443,227 +2879,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round3!$A$2:$A$36</c:f>
+              <c:f>round4!$A$11:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>SSD01</c:v>
+                  <c:v>ssd01-20G</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>ssd11-20G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>ssd02-40G</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>ssd12-40G</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>ssd03-75G</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HDD01</c:v>
+                  <c:v>ssd13-145G</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Ssd-var</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSD02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HDD02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SSD03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>HDD03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SSD-var</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
+                  <c:v>Intel-ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round3!$B$2:$B$36</c:f>
+              <c:f>round4!$B$11:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>201576</c:v>
+                  <c:v>201127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192576</c:v>
+                  <c:v>209508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197593</c:v>
+                  <c:v>210489</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>187121</c:v>
+                  <c:v>235659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>189180</c:v>
+                  <c:v>227512</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111645</c:v>
+                  <c:v>228948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>107697</c:v>
+                  <c:v>236056</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>106153</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104564</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>229683</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>234317</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>218141</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>217729</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>205730</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51560</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>52202</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52921</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52835</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52906</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>226916</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>224801</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>226628</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>226215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>224703</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>98040</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>84499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>78157</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>80342</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>82530</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>238988</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>238262</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>235169</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>235538</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>236397</c:v>
+                  <c:v>239641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,7 +2949,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>round3!$D$1</c:f>
+              <c:f>round4!$D$10:$D$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1715,227 +2989,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round3!$A$2:$A$36</c:f>
+              <c:f>round4!$A$11:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>SSD01</c:v>
+                  <c:v>ssd01-20G</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>ssd11-20G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>ssd02-40G</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>ssd12-40G</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>ssd03-75G</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HDD01</c:v>
+                  <c:v>ssd13-145G</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Ssd-var</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSD02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HDD02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SSD03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>HDD03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SSD-var</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
+                  <c:v>Intel-ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round3!$D$2:$D$36</c:f>
+              <c:f>round4!$D$11:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>214816</c:v>
+                  <c:v>215152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213698</c:v>
+                  <c:v>189223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214426</c:v>
+                  <c:v>215396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213549</c:v>
+                  <c:v>140759</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>213306</c:v>
+                  <c:v>208065</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109321</c:v>
+                  <c:v>182680</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109433</c:v>
+                  <c:v>273276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110322</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>111155</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>111418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>215801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>215817</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>214845</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>214921</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>215138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64155</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64325</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64419</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65532</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>208449</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>210098</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>207603</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>208524</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>209053</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>106226</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>107301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>107396</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112982</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>112834</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>273486</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>274677</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>275706</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>276649</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>276550</c:v>
+                  <c:v>262493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,7 +3059,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>round3!$C$1</c:f>
+              <c:f>round4!$C$10:$C$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1987,227 +3099,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round3!$A$2:$A$36</c:f>
+              <c:f>round4!$A$11:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>SSD01</c:v>
+                  <c:v>ssd01-20G</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>ssd11-20G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>ssd02-40G</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>ssd12-40G</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>ssd03-75G</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>HDD01</c:v>
+                  <c:v>ssd13-145G</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>Ssd-var</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSD02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HDD02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SSD03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>HDD03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SSD-var</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
+                  <c:v>Intel-ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round3!$C$2:$C$36</c:f>
+              <c:f>round4!$C$11:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>89960</c:v>
+                  <c:v>92135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90651</c:v>
+                  <c:v>70343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90661</c:v>
+                  <c:v>89623</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90661</c:v>
+                  <c:v>82598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90251</c:v>
+                  <c:v>85955</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47201</c:v>
+                  <c:v>71203</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46976</c:v>
+                  <c:v>113036</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>92366</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93694</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90057</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>89040</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31974</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31164</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30859</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30941</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30769</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>88083</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>88865</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88227</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>88458</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87862</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40757</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42668</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41398</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40557</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41128</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>112939</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>113270</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>113085</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>112999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>113726</c:v>
+                  <c:v>110966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,11 +3172,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="16183980"/>
-        <c:axId val="58895472"/>
+        <c:axId val="4212010"/>
+        <c:axId val="18369802"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="16183980"/>
+        <c:axId val="4212010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,14 +3211,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58895472"/>
+        <c:crossAx val="18369802"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58895472"/>
+        <c:axId val="18369802"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2312,7 +3262,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16183980"/>
+        <c:crossAx val="4212010"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2385,7 +3335,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>zfs on hdd with different raid setting</a:t>
+              <a:t>samsung vs intel ssd with different zpool setting</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2401,7 +3351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$B$1</c:f>
+              <c:f>round4!$B$21:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2431,6 +3381,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2440,35 +3391,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$2:$A$4</c:f>
+              <c:f>round4!$A$22:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>hdd01</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hdd02</c:v>
+                  <c:v>ssd02-40G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hdd03</c:v>
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$B$2:$B$4</c:f>
+              <c:f>round4!$B$22:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>112110</c:v>
+                  <c:v>201127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41736</c:v>
+                  <c:v>210489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24275</c:v>
+                  <c:v>227512</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>235659</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2480,7 +3461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$D$1</c:f>
+              <c:f>round4!$D$21:$D$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2510,6 +3491,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2519,35 +3501,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$2:$A$4</c:f>
+              <c:f>round4!$A$22:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>hdd01</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hdd02</c:v>
+                  <c:v>ssd02-40G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hdd03</c:v>
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$D$2:$D$4</c:f>
+              <c:f>round4!$D$22:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>108787</c:v>
+                  <c:v>215152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61634</c:v>
+                  <c:v>215396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44064</c:v>
+                  <c:v>208065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>189223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2559,7 +3571,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$C$1</c:f>
+              <c:f>round4!$C$21:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2589,6 +3601,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2598,35 +3611,65 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$2:$A$4</c:f>
+              <c:f>round4!$A$22:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>hdd01</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hdd02</c:v>
+                  <c:v>ssd02-40G</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hdd03</c:v>
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$C$2:$C$4</c:f>
+              <c:f>round4!$C$22:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>47558</c:v>
+                  <c:v>92135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24752</c:v>
+                  <c:v>89623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15872</c:v>
+                  <c:v>85955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70343</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2641,11 +3684,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="86523242"/>
-        <c:axId val="66976347"/>
+        <c:axId val="87627322"/>
+        <c:axId val="53386427"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="86523242"/>
+        <c:axId val="87627322"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,14 +3723,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66976347"/>
+        <c:crossAx val="53386427"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66976347"/>
+        <c:axId val="53386427"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,7 +3745,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2731,7 +3774,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86523242"/>
+        <c:crossAx val="87627322"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2754,7 +3797,7 @@
         </a:ln>
       </c:spPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
@@ -2804,7 +3847,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>samsung vs intel ssd with different zpool size</a:t>
+              <a:t>5th round</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2820,7 +3863,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$B$10</c:f>
+              <c:f>round5!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2850,6 +3893,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2859,65 +3903,167 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$11:$A$18</c:f>
+              <c:f>round5!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
+                  <c:v>SSD20G</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ssd11-20G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ssd02-40G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ssd12-40G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ssd03-75G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
+                  <c:v>SSD40G</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD80G</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>raid1-2vdev</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>raid1-3vdev</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$B$11:$B$18</c:f>
+              <c:f>round5!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>201127</c:v>
+                  <c:v>206180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209508</c:v>
+                  <c:v>209358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210489</c:v>
+                  <c:v>208856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235659</c:v>
+                  <c:v>207230</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>227512</c:v>
+                  <c:v>205598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>228948</c:v>
+                  <c:v>235274</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236056</c:v>
+                  <c:v>233299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239641</c:v>
+                  <c:v>234307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>229504</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>232216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>235968</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>233385</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>235145</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230235</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>228878</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>87834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>107291</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>108040</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>106937</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>73025</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2929,7 +4075,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$D$10</c:f>
+              <c:f>round5!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2959,6 +4105,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2968,65 +4115,167 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$11:$A$18</c:f>
+              <c:f>round5!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
+                  <c:v>SSD20G</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ssd11-20G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ssd02-40G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ssd12-40G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ssd03-75G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
+                  <c:v>SSD40G</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD80G</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>raid1-2vdev</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>raid1-3vdev</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$D$11:$D$18</c:f>
+              <c:f>round5!$D$2:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>215152</c:v>
+                  <c:v>193680</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189223</c:v>
+                  <c:v>189219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215396</c:v>
+                  <c:v>188570</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140759</c:v>
+                  <c:v>188116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208065</c:v>
+                  <c:v>181665</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182680</c:v>
+                  <c:v>140605</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273276</c:v>
+                  <c:v>140699</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>262493</c:v>
+                  <c:v>141236</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154234</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>153550</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>152055</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>154777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>153447</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216707</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>217378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>216794</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>216208</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>214749</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>218451</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>217654</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>217233</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>216761</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3038,7 +4287,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$C$10</c:f>
+              <c:f>round5!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3068,6 +4317,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3077,65 +4327,167 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$11:$A$18</c:f>
+              <c:f>round5!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
+                  <c:v>SSD20G</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ssd11-20G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ssd02-40G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ssd12-40G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ssd03-75G</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
+                  <c:v>SSD40G</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD80G</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>raid1-2vdev</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>raid1-3vdev</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$C$11:$C$18</c:f>
+              <c:f>round5!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>92135</c:v>
+                  <c:v>70001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70343</c:v>
+                  <c:v>70032</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89623</c:v>
+                  <c:v>69948</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82598</c:v>
+                  <c:v>69966</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85955</c:v>
+                  <c:v>68807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71203</c:v>
+                  <c:v>82459</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113036</c:v>
+                  <c:v>82398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110966</c:v>
+                  <c:v>82510</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82958</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>91424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91801</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>88729</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90934</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>58055</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>63646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63533</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>63199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63310</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48748</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>48083</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +4502,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="3073230"/>
-        <c:axId val="81193901"/>
+        <c:axId val="48152520"/>
+        <c:axId val="38502445"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3073230"/>
+        <c:axId val="48152520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,14 +4541,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81193901"/>
+        <c:crossAx val="38502445"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81193901"/>
+        <c:axId val="38502445"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3211,7 +4563,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3240,516 +4592,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3073230"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>samsung vs intel ssd with different zpool setting</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>round4!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SequentialOutput (block)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>round4!$A$22:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ssd02-40G</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ssd03-75G</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ssd11-20G</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ssd12-40G</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>round4!$B$22:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>201127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>210489</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>227512</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>209508</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>235659</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>228948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>236056</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>239641</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>round4!$D$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Sequential Input (block)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>round4!$A$22:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ssd02-40G</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ssd03-75G</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ssd11-20G</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ssd12-40G</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>round4!$D$22:$D$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>215152</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>215396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>208065</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>189223</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>140759</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>182680</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>273276</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>262493</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>round4!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rewrite </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>round4!$A$22:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ssd02-40G</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ssd03-75G</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ssd11-20G</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ssd12-40G</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>round4!$C$22:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>92135</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>89623</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>85955</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70343</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>82598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>71203</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>113036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110966</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="73478506"/>
-        <c:axId val="67080554"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="73478506"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67080554"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67080554"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="73478506"/>
+        <c:crossAx val="48152520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3797,9 +4640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>875880</xdr:colOff>
+      <xdr:colOff>875160</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>153000</xdr:rowOff>
+      <xdr:rowOff>152280</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3807,8 +4650,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5969880" y="13440960"/>
-        <a:ext cx="11050560" cy="6726600"/>
+        <a:off x="7065360" y="13440960"/>
+        <a:ext cx="13240800" cy="6725880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3826,15 +4669,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>109440</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>46080</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>61200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>574560</xdr:colOff>
+      <xdr:colOff>547920</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3842,8 +4685,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4586040" y="1053000"/>
-        <a:ext cx="7628040" cy="5102280"/>
+        <a:off x="3332160" y="2841120"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3867,9 +4710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3877,8 +4720,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4140000" y="0"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="3076560" y="0"/>
+        <a:ext cx="4269600" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3897,9 +4740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3907,8 +4750,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4142880" y="3509640"/>
-        <a:ext cx="5758920" cy="3241440"/>
+        <a:off x="3079440" y="3509640"/>
+        <a:ext cx="4268880" cy="3240720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3927,9 +4770,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>275040</xdr:colOff>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3937,12 +4780,47 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9958320" y="3533040"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="7405560" y="3533040"/>
+        <a:ext cx="4269960" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105840</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>175320</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4582440" y="1240920"/>
+        <a:ext cx="6337080" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3959,12 +4837,12 @@
   <dimension ref="1:98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J105" activeCellId="0" sqref="J105"/>
+      <selection pane="topLeft" activeCell="D94" activeCellId="0" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="16.9886363636364"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="20.4431818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -61571,11 +62449,14 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.375"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -62158,13 +63039,13 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H36" activeCellId="0" sqref="H36"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N37" activeCellId="0" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -62398,7 +63279,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>201127</v>
@@ -62542,4 +63423,435 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>206180</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>70001</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>193680</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="0" t="n">
+        <v>209358</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>70032</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>189219</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="0" t="n">
+        <v>208856</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>69948</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>188570</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="0" t="n">
+        <v>207230</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>69966</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>188116</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="0" t="n">
+        <v>205598</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>68807</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>181665</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>235274</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>82459</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>140605</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="0" t="n">
+        <v>233299</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>82398</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>140699</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="0" t="n">
+        <v>234307</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>82510</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>141236</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="0" t="n">
+        <v>229504</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>82958</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>140156</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="0" t="n">
+        <v>232216</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>82400</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>141419</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>235968</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>91424</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>154234</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="0" t="n">
+        <v>233385</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>91801</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>153550</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="0" t="n">
+        <v>235145</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>88729</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>152055</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="0" t="n">
+        <v>230235</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>90934</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>154777</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="0" t="n">
+        <v>228878</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>89855</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>153447</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>87834</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>58055</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>216707</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="0" t="n">
+        <v>107291</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>63646</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>218544</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="0" t="n">
+        <v>108040</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>63533</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>217378</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="0" t="n">
+        <v>106995</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>63199</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>216794</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="0" t="n">
+        <v>106937</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>63310</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>216208</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>74002</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>48748</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>214749</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="0" t="n">
+        <v>74387</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>48327</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>218451</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="0" t="n">
+        <v>73436</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>48197</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>217654</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="0" t="n">
+        <v>73025</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>48083</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>217233</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="0" t="n">
+        <v>72352</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>48161</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>216761</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>943</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="round2" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,9 @@
     <sheet name="round6" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="7th" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="8th" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="9th-Raid0" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="9th" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="62">
   <si>
     <t xml:space="preserve">sequential output</t>
   </si>
@@ -147,6 +150,72 @@
   <si>
     <t xml:space="preserve">R1_2T</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sequential Output (block)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1_1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5_500G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seq. Write (Block)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seq. Read (Block)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random seek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM1024-n1c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM4096-n1c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM8192-n1c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM4096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM1024-no-sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-RAM4096-no-sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5-no-sync</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No RAID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAID-0 (2HDD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAID-0 (4HDD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAID-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAID-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAID-6</t>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <b val="true"/>
       <sz val="10"/>
@@ -187,6 +256,16 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -194,11 +273,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -245,7 +319,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +333,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,7 +412,1936 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>zpool with different pool size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round3!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>SSD01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HDD01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HDD02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SSD03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HDD03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>SSD-var</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round3!$B$2:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>201576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>197593</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>187121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>189180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>111645</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>104564</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103171</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>229683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>234317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>218141</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217729</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>205730</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51560</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52202</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52835</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52906</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>226916</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>224801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>226628</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>226215</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>224703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>98040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78157</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80342</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>82530</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>238988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>238262</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>235169</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>235538</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>236397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round3!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>SSD01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HDD01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HDD02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SSD03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HDD03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>SSD-var</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round3!$D$2:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>214816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>213549</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109433</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110322</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>111155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111418</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215817</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>214845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>214921</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>215138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>64155</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>64325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>64419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64408</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>208449</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>210098</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>207603</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>208524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209053</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>106226</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>107301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>107396</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112982</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>112834</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>273486</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>274677</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>275706</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>276649</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>276550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round3!$A$2:$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>SSD01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HDD01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SSD02</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>HDD02</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SSD03</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>HDD03</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>SSD-var</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round3!$C$2:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>89960</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46355</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46608</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>92366</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93694</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>89965</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90057</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89040</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30859</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30941</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>30769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>88083</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>88865</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>88227</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>88458</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87862</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40757</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41398</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>41128</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112939</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>113270</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>113085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>112999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>113726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="89750522"/>
+        <c:axId val="12175997"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="89750522"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12175997"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12175997"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89750522"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>zfs on hdd with different raid setting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>112110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24275</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$D$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>108787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61634</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>hdd01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>hdd02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>hdd03</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15872</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="39064536"/>
+        <c:axId val="68528852"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="39064536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68528852"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68528852"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="39064536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>samsung vs intel ssd with different zpool size</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$B$10:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SequentialOutput (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$B$11:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>201127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>209508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210489</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>235659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>227512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228948</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>239641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$D$10:$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential Input (block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$D$11:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>215152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>215396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208065</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182680</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>273276</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>262493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>round4!$C$10:$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>round4!$A$11:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>ssd01-20G</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ssd11-20G</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ssd02-40G</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ssd12-40G</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ssd03-75G</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>ssd13-145G</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ssd-var</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Intel-ssd</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>round4!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>92135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>89623</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85955</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110966</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="27867276"/>
+        <c:axId val="87742909"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="27867276"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="87742909"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="87742909"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27867276"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -719,11 +2726,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="94777720"/>
-        <c:axId val="44029270"/>
+        <c:axId val="84941805"/>
+        <c:axId val="90434770"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="94777720"/>
+        <c:axId val="84941805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -758,14 +2765,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44029270"/>
+        <c:crossAx val="90434770"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44029270"/>
+        <c:axId val="90434770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +2816,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="94777720"/>
+        <c:crossAx val="84941805"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -846,7 +2853,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1267,11 +3274,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62529992"/>
-        <c:axId val="77327868"/>
+        <c:axId val="52637074"/>
+        <c:axId val="15638209"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62529992"/>
+        <c:axId val="52637074"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,14 +3313,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77327868"/>
+        <c:crossAx val="15638209"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77327868"/>
+        <c:axId val="15638209"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1357,7 +3364,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62529992"/>
+        <c:crossAx val="52637074"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1394,7 +3401,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1905,11 +3912,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="5259636"/>
-        <c:axId val="44550449"/>
+        <c:axId val="1447351"/>
+        <c:axId val="71564516"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="5259636"/>
+        <c:axId val="1447351"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,14 +3951,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44550449"/>
+        <c:crossAx val="71564516"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44550449"/>
+        <c:axId val="71564516"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,7 +4002,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5259636"/>
+        <c:crossAx val="1447351"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2032,50 +4039,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>zfs with different pool size</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2084,11 +4052,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>round3!$B$1</c:f>
+              <c:f>8th!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SequentialOutput (block)</c:v>
+                  <c:v>Sequential Output (block)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2124,227 +4092,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round3!$A$2:$A$36</c:f>
+              <c:f>8th!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>SSD01</c:v>
+                  <c:v>R1_1T</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>R1_2T</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HDD01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSD02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HDD02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SSD03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>HDD03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SSD-var</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
+                  <c:v>R5_500G</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round3!$B$2:$B$36</c:f>
+              <c:f>8th!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>201576</c:v>
+                  <c:v>29161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192576</c:v>
+                  <c:v>129730</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>197593</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>187121</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>189180</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>111645</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>107697</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>106153</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>104564</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>103171</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>229683</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>234317</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>218141</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>217729</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>205730</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>51560</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>52202</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>52921</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52835</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52906</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>226916</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>224801</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>226628</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>226215</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>224703</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>98040</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>84499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>78157</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>80342</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>82530</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>238988</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>238262</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>235169</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>235538</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>236397</c:v>
+                  <c:v>61499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,7 +4132,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>round3!$D$1</c:f>
+              <c:f>8th!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2396,227 +4172,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round3!$A$2:$A$36</c:f>
+              <c:f>8th!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>SSD01</c:v>
+                  <c:v>R1_1T</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>R1_2T</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HDD01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSD02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HDD02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SSD03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>HDD03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SSD-var</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
+                  <c:v>R5_500G</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round3!$D$2:$D$36</c:f>
+              <c:f>8th!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>214816</c:v>
+                  <c:v>68931</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>213698</c:v>
+                  <c:v>252554</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214426</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>213549</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>213306</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>109321</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>109433</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>110322</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>111155</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>111418</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>215801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>215817</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>214845</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>214921</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>215138</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>64155</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>64325</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>64419</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>64408</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>65532</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>208449</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>210098</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>207603</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>208524</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>209053</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>106226</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>107301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>107396</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112982</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>112834</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>273486</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>274677</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>275706</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>276649</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>276550</c:v>
+                  <c:v>40474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,7 +4212,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>round3!$C$1</c:f>
+              <c:f>8th!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2668,227 +4252,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round3!$A$2:$A$36</c:f>
+              <c:f>8th!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>SSD01</c:v>
+                  <c:v>R1_1T</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>R1_2T</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>HDD01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SSD02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>HDD02</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>SSD03</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>HDD03</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>SSD-var</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v/>
+                  <c:v>R5_500G</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round3!$C$2:$C$36</c:f>
+              <c:f>8th!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>89960</c:v>
+                  <c:v>26570</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90651</c:v>
+                  <c:v>63540</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90661</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>90661</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46976</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>46355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46608</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>92366</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>93694</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>89965</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>90057</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>89040</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31974</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>31164</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>30859</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30941</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>30769</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>88083</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>88865</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>88227</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>88458</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87862</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40757</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42668</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41398</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40557</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41128</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>112939</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>113270</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>113085</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>112999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>113726</c:v>
+                  <c:v>20425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,11 +4295,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="31154221"/>
-        <c:axId val="71667581"/>
+        <c:axId val="91109652"/>
+        <c:axId val="75036611"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31154221"/>
+        <c:axId val="91109652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2942,14 +4334,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71667581"/>
+        <c:crossAx val="75036611"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71667581"/>
+        <c:axId val="75036611"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2993,7 +4385,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31154221"/>
+        <c:crossAx val="91109652"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3030,7 +4422,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3066,7 +4458,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>zfs on hdd with different raid setting</a:t>
+              <a:t>RAID0-with diff bonnie++ parameters</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3082,11 +4474,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$B$1:$B$1</c:f>
+              <c:f>'9th-Raid0'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SequentialOutput (block)</c:v>
+                  <c:v>Seq. Write (Block)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3122,35 +4514,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$2:$A$4</c:f>
+              <c:f>'9th-Raid0'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>hdd01</c:v>
+                  <c:v>R5-RAM1024-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hdd02</c:v>
+                  <c:v>R5-RAM4096-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hdd03</c:v>
+                  <c:v>R5-RAM8192-n1c4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R5-RAM1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R5-RAM4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R5-RAM1024-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R5-RAM4096-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R5-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$B$2:$B$4</c:f>
+              <c:f>'9th-Raid0'!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>112110</c:v>
+                  <c:v>313514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41736</c:v>
+                  <c:v>311319</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24275</c:v>
+                  <c:v>290323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292511</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>293145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>311361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>287854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>296369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298953</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320856</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288647</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>297961</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>299023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>287844</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>296747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>295766</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>292688</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,11 +4644,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$D$1:$D$1</c:f>
+              <c:f>'9th-Raid0'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sequential Input (block)</c:v>
+                  <c:v>Seq. Read (Block)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3202,35 +4684,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$2:$A$4</c:f>
+              <c:f>'9th-Raid0'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>hdd01</c:v>
+                  <c:v>R5-RAM1024-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hdd02</c:v>
+                  <c:v>R5-RAM4096-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hdd03</c:v>
+                  <c:v>R5-RAM8192-n1c4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R5-RAM1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R5-RAM4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R5-RAM1024-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R5-RAM4096-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R5-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$D$2:$D$4</c:f>
+              <c:f>'9th-Raid0'!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>108787</c:v>
+                  <c:v>298062</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61634</c:v>
+                  <c:v>303628</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44064</c:v>
+                  <c:v>305350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>328162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>298559</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>308515</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>329428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305756</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>364216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298036</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>327610</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>303465</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>295485</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>294281</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>294663</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>301466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3242,7 +4814,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$C$1:$C$1</c:f>
+              <c:f>'9th-Raid0'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3282,35 +4854,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$2:$A$4</c:f>
+              <c:f>'9th-Raid0'!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>hdd01</c:v>
+                  <c:v>R5-RAM1024-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>hdd02</c:v>
+                  <c:v>R5-RAM4096-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>hdd03</c:v>
+                  <c:v>R5-RAM8192-n1c4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>R5-RAM1024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>R5-RAM4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>R5-RAM1024-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>R5-RAM4096-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>R5-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$C$2:$C$4</c:f>
+              <c:f>'9th-Raid0'!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>47558</c:v>
+                  <c:v>131875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24752</c:v>
+                  <c:v>127451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15872</c:v>
+                  <c:v>135912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136814</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132139</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128514</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>136428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>133804</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130284</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>125518</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128681</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>128943</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3325,11 +4987,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="60365001"/>
-        <c:axId val="10898851"/>
+        <c:axId val="23158123"/>
+        <c:axId val="58068576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60365001"/>
+        <c:axId val="23158123"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3364,14 +5026,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10898851"/>
+        <c:crossAx val="58068576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10898851"/>
+        <c:axId val="58068576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +5077,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60365001"/>
+        <c:crossAx val="23158123"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3438,7 +5100,7 @@
         </a:ln>
       </c:spPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
+    <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:spPr>
@@ -3452,7 +5114,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3488,7 +5150,7 @@
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>samsung vs intel ssd with different zpool size</a:t>
+              <a:t>Bonnie++ on different RAID setting using 4x2TB HDD</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3504,11 +5166,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$B$10:$B$10</c:f>
+              <c:f>9th!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SequentialOutput (block)</c:v>
+                  <c:v>Seq. Write (Block)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3544,65 +5206,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$11:$A$18</c:f>
+              <c:f>9th!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
+                  <c:v>R5-RAM1024-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ssd11-20G</c:v>
+                  <c:v>R5-RAM4096-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ssd02-40G</c:v>
+                  <c:v>R5-RAM8192-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ssd12-40G</c:v>
+                  <c:v>R5-RAM1024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ssd03-75G</c:v>
+                  <c:v>R5-RAM4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
+                  <c:v>R5-RAM1024-no-sync</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
+                  <c:v>R5-RAM4096-no-sync</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
+                  <c:v>R5-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$B$11:$B$18</c:f>
+              <c:f>9th!$B$2:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>201127</c:v>
+                  <c:v>248107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209508</c:v>
+                  <c:v>244177</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>210489</c:v>
+                  <c:v>246496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235659</c:v>
+                  <c:v>248056</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>227512</c:v>
+                  <c:v>255634</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>228948</c:v>
+                  <c:v>247545</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>236056</c:v>
+                  <c:v>246276</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>239641</c:v>
+                  <c:v>258329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>255544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>265290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>257472</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256495</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>179478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>181501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>178810</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>178619</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>178681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3614,11 +5336,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$D$10:$D$10</c:f>
+              <c:f>9th!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sequential Input (block)</c:v>
+                  <c:v>Seq. Read (Block)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3654,65 +5376,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$11:$A$18</c:f>
+              <c:f>9th!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
+                  <c:v>R5-RAM1024-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ssd11-20G</c:v>
+                  <c:v>R5-RAM4096-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ssd02-40G</c:v>
+                  <c:v>R5-RAM8192-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ssd12-40G</c:v>
+                  <c:v>R5-RAM1024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ssd03-75G</c:v>
+                  <c:v>R5-RAM4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
+                  <c:v>R5-RAM1024-no-sync</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
+                  <c:v>R5-RAM4096-no-sync</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
+                  <c:v>R5-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$D$11:$D$18</c:f>
+              <c:f>9th!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>215152</c:v>
+                  <c:v>265789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>189223</c:v>
+                  <c:v>258423</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>215396</c:v>
+                  <c:v>219009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140759</c:v>
+                  <c:v>231695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>208065</c:v>
+                  <c:v>235901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182680</c:v>
+                  <c:v>285813</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273276</c:v>
+                  <c:v>243260</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>262493</c:v>
+                  <c:v>288400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>289189</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287390</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>259225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>260101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>233363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>233393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>222633</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>221827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>226462</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>219902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,7 +5506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>round4!$C$10:$C$10</c:f>
+              <c:f>9th!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3764,65 +5546,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>round4!$A$11:$A$18</c:f>
+              <c:f>9th!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>ssd01-20G</c:v>
+                  <c:v>R5-RAM1024-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ssd11-20G</c:v>
+                  <c:v>R5-RAM4096-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ssd02-40G</c:v>
+                  <c:v>R5-RAM8192-n1c4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>ssd12-40G</c:v>
+                  <c:v>R5-RAM1024</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ssd03-75G</c:v>
+                  <c:v>R5-RAM4096</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>ssd13-145G</c:v>
+                  <c:v>R5-RAM1024-no-sync</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Ssd-var</c:v>
+                  <c:v>R5-RAM4096-no-sync</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Intel-ssd</c:v>
+                  <c:v>R5-no-sync</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>R6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>round4!$C$11:$C$18</c:f>
+              <c:f>9th!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>92135</c:v>
+                  <c:v>92338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70343</c:v>
+                  <c:v>92862</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89623</c:v>
+                  <c:v>93527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82598</c:v>
+                  <c:v>92492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85955</c:v>
+                  <c:v>93236</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71203</c:v>
+                  <c:v>92312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>113036</c:v>
+                  <c:v>92854</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>110966</c:v>
+                  <c:v>93540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91208</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92030</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70861</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70402</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69647</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>69924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>70778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3837,11 +5679,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="73505804"/>
-        <c:axId val="88738700"/>
+        <c:axId val="3869028"/>
+        <c:axId val="53054770"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73505804"/>
+        <c:axId val="3869028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3876,14 +5718,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88738700"/>
+        <c:crossAx val="53054770"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88738700"/>
+        <c:axId val="53054770"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3927,7 +5769,912 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73505804"/>
+        <c:crossAx val="3869028"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Performance of Different RAID setting</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seq. Write (Block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>No RAID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RAID-0 (2HDD)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAID-0 (4HDD)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RAID-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RAID-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RAID-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>122254</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>119024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119628</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>147634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>246337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>213293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>224558</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>225516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>227400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>296369</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>298953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320856</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>288647</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>297961</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123138</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>114227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>125769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>121046</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>131379</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>255544</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>265290</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>257472</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>256495</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>256911</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>179478</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>181501</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>178810</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>178619</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>178681</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seq. Read (Block)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>No RAID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RAID-0 (2HDD)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAID-0 (4HDD)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RAID-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RAID-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RAID-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$D$2:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>163933</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163880</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162583</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152461</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>287014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>292446</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>288569</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287787</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>329428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>305756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364216</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>298036</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>327610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>256259</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>244932</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>272701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>250737</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>283336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>289189</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>287390</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>259225</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>260101</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>233363</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>233393</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>222633</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>221827</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>226462</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>219902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet10!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rewrite </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$A$2:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>No RAID</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RAID-0 (2HDD)</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RAID-0 (4HDD)</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RAID-1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>RAID-5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>RAID-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>50572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98644</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97135</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98791</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97932</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>136428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132047</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>138941</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130296</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133804</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61865</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59099</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>63766</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>65875</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61076</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>92442</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>93614</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91208</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>92030</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70861</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69647</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>69924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>70778</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="76878076"/>
+        <c:axId val="90375086"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="76878076"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="90375086"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90375086"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76878076"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3969,15 +6716,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:colOff>105480</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546840</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>331200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3985,8 +6732,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4379760" y="2841120"/>
-        <a:ext cx="7435080" cy="3238560"/>
+        <a:off x="4058280" y="1213560"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4010,9 +6757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>144360</xdr:colOff>
+      <xdr:colOff>142560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4020,8 +6767,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4029120" y="0"/>
-        <a:ext cx="5601960" cy="3237840"/>
+        <a:off x="3695760" y="0"/>
+        <a:ext cx="5133600" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4040,9 +6787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>144720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4050,8 +6797,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4032000" y="3509640"/>
-        <a:ext cx="5601240" cy="3239640"/>
+        <a:off x="3698640" y="3509640"/>
+        <a:ext cx="5132880" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4070,9 +6817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273240</xdr:colOff>
+      <xdr:colOff>271440</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4080,8 +6827,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9691560" y="3533040"/>
-        <a:ext cx="5602320" cy="3237840"/>
+        <a:off x="8891640" y="3533040"/>
+        <a:ext cx="5133600" cy="3236040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4105,9 +6852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
+      <xdr:colOff>24480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4115,8 +6862,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3770280" y="743760"/>
-        <a:ext cx="4056840" cy="3238920"/>
+        <a:off x="5884920" y="743760"/>
+        <a:ext cx="6521760" cy="3237120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4140,9 +6887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>471600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4150,8 +6897,148 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4880520" y="389520"/>
-        <a:ext cx="6337080" cy="3239280"/>
+        <a:off x="4737600" y="389520"/>
+        <a:ext cx="6135120" cy="3237480"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>537840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>189360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4490640" y="189360"/>
+        <a:ext cx="7663320" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>324360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>231840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>64440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3324600" y="1017720"/>
+        <a:ext cx="4269600" cy="3238920"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>297720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>591120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="3204000" y="639720"/>
+        <a:ext cx="3987720" cy="3239280"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>234720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4298400" y="1613880"/>
+        <a:ext cx="5759640" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4177,21 +7064,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="20.4431818181818"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4201,6 +7095,11 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -4218,36 +7117,118 @@
       <c r="E3" s="1" t="n">
         <v>2277</v>
       </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="0"/>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
@@ -4405,6 +7386,26 @@
         <v>94</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="n">
         <v>121761</v>
@@ -4534,6 +7535,26 @@
       <c r="I25" s="1" t="n">
         <v>5</v>
       </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="n">
@@ -4572,6 +7593,518 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N19" activeCellId="0" sqref="N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>122254</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>50572</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>163933</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="0" t="n">
+        <v>123260</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>49904</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>152604</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="0" t="n">
+        <v>119024</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>52224</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>163880</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="0" t="n">
+        <v>119628</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>52602</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>162583</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="0" t="n">
+        <v>147634</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>49213</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>152461</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>246337</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>98644</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>287014</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="0" t="n">
+        <v>213293</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>97135</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>284616</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="0" t="n">
+        <v>224558</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100967</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>292446</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="0" t="n">
+        <v>225516</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>98791</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>288569</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="0" t="n">
+        <v>227400</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>97932</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>287787</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>296369</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>136428</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>329428</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="0" t="n">
+        <v>298953</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>132047</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>305756</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="0" t="n">
+        <v>320856</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>138941</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>364216</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="0" t="n">
+        <v>288647</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>130296</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>298036</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="0" t="n">
+        <v>297961</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>133804</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>327610</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>123138</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>61865</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>256259</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="0" t="n">
+        <v>114227</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>59099</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>244932</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="0" t="n">
+        <v>125769</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>63766</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>272701</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3"/>
+      <c r="B20" s="0" t="n">
+        <v>121046</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>65875</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>250737</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3"/>
+      <c r="B21" s="0" t="n">
+        <v>131379</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>61076</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>283336</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>255544</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>92442</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>289189</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="0" t="n">
+        <v>265290</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>93276</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>287390</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3"/>
+      <c r="B24" s="0" t="n">
+        <v>257472</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>93614</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>259225</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3"/>
+      <c r="B25" s="0" t="n">
+        <v>256495</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>91208</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>260101</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3"/>
+      <c r="B26" s="0" t="n">
+        <v>256911</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>92030</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>233363</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>179478</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>70861</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>233393</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3"/>
+      <c r="B28" s="0" t="n">
+        <v>181501</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>70402</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>222633</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="0" t="n">
+        <v>178810</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>69647</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>221827</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="0" t="n">
+        <v>178619</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>69924</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>226462</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="0" t="n">
+        <v>178681</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>70778</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>219902</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4579,13 +8112,13 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6818181818182"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,13 +8702,13 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S17" activeCellId="0" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4772727272727"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.4261363636364"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,13 +9095,13 @@
   </sheetPr>
   <dimension ref="B2:E26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5940,13 +9473,10 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -6140,10 +9670,13 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6818181818182"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="39.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
@@ -6412,22 +9945,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8295454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.4772727272727"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+    <row r="1" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>29161</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>26570</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>68931</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>129730</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>63540</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>252554</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>61499</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>20425</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>40474</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6437,5 +10029,678 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>313514</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>131875</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>298062</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>311319</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>127451</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>303628</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>290323</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>135912</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>305350</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>292511</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>136814</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>328298</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>301565</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>132139</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>328162</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>293145</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>128514</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>304245</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>311361</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>133272</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>298559</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>287854</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>127782</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>308515</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>296369</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>136428</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>329428</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="0" t="n">
+        <v>298953</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>132047</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>305756</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="0" t="n">
+        <v>320856</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>138941</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>364216</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="0" t="n">
+        <v>288647</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>130296</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>298036</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="0" t="n">
+        <v>297961</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>133804</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>327610</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>299023</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>130284</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>303465</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="0" t="n">
+        <v>287844</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>125518</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>295485</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="0" t="n">
+        <v>296747</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>128681</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>294281</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="0" t="n">
+        <v>295766</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>128943</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>294663</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="0" t="n">
+        <v>292688</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>127540</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>301466</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.47159090909091"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>248107</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>92338</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>265789</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>244177</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>92862</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>258423</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>246496</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>93527</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>219009</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>248056</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>92492</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>231695</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>255634</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>93236</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>235901</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>247545</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>92312</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>285813</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>246276</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>92854</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>243260</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>258329</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>93540</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>288400</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>255544</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>92442</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>289189</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="0" t="n">
+        <v>265290</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>93276</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>287390</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="0" t="n">
+        <v>257472</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>93614</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>259225</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="0" t="n">
+        <v>256495</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>91208</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>260101</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="0" t="n">
+        <v>256911</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>92030</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>233363</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>179478</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>70861</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>233393</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="0" t="n">
+        <v>181501</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>70402</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>222633</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="0" t="n">
+        <v>178810</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>69647</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>221827</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="0" t="n">
+        <v>178619</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>69924</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>226462</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3"/>
+      <c r="B19" s="0" t="n">
+        <v>178681</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>70778</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>219902</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A15:A19"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>